--- a/Server/Templates/Report.xlsx
+++ b/Server/Templates/Report.xlsx
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -196,7 +196,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +498,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,7 +557,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
